--- a/medicine/Médecine vétérinaire/Maréchalerie_à_pression/Maréchalerie_à_pression.xlsx
+++ b/medicine/Médecine vétérinaire/Maréchalerie_à_pression/Maréchalerie_à_pression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mar%C3%A9chalerie_%C3%A0_pression</t>
+          <t>Maréchalerie_à_pression</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maréchalerie à pression (en anglais soring) est l'emploi de produits chimiques associés à une forte pression sur les pieds d'un cheval, destiné à provoquer une douleur quand les pieds touchent le sol, ce qui pousse le cheval à les soulever plus haut et plus rapidement. Combinée à des fers sur cale compensés et alourdis[1], la maréchalerie à pression crée une action spectaculaire des membres antérieurs, recherchée pendant les shows du Tennessee. Cette pratique abusive illégale est essentiellement utilisée sur les chevaux de race Tennessee Walker aux États-Unis. Bien qu'interdite par le Horse protection act de 1970, la maréchalerie à pression continue d'être employée illégalement pour obtenir le mouvement dit du « big lick » chez cette race. D'autres races ont été victimes de cette pratique par le passé, en particulier le Racking horse et le Spotted saddle horse.
-Par manque de moyens, seuls 7 % des concours sont contrôlés[2]. En 2013, l’entraîneur Jackie McConnell, dont les pratiques ont été révélées par une vidéo tournée en caméra cachée, a été condamné à un an de prison et vingt ans d'interdiction d'entraîner des chevaux, ce qui met un terme définitif à sa carrière en raison de son âge[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maréchalerie à pression (en anglais soring) est l'emploi de produits chimiques associés à une forte pression sur les pieds d'un cheval, destiné à provoquer une douleur quand les pieds touchent le sol, ce qui pousse le cheval à les soulever plus haut et plus rapidement. Combinée à des fers sur cale compensés et alourdis, la maréchalerie à pression crée une action spectaculaire des membres antérieurs, recherchée pendant les shows du Tennessee. Cette pratique abusive illégale est essentiellement utilisée sur les chevaux de race Tennessee Walker aux États-Unis. Bien qu'interdite par le Horse protection act de 1970, la maréchalerie à pression continue d'être employée illégalement pour obtenir le mouvement dit du « big lick » chez cette race. D'autres races ont été victimes de cette pratique par le passé, en particulier le Racking horse et le Spotted saddle horse.
+Par manque de moyens, seuls 7 % des concours sont contrôlés. En 2013, l’entraîneur Jackie McConnell, dont les pratiques ont été révélées par une vidéo tournée en caméra cachée, a été condamné à un an de prison et vingt ans d'interdiction d'entraîner des chevaux, ce qui met un terme définitif à sa carrière en raison de son âge.
 </t>
         </is>
       </c>
